--- a/biology/Médecine/Sébastien_Peytavie/Sébastien_Peytavie.xlsx
+++ b/biology/Médecine/Sébastien_Peytavie/Sébastien_Peytavie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Peytavie</t>
+          <t>Sébastien_Peytavie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sébastien Peytavie, né le 17 avril 1982 à Sarlat-la-Canéda (Dordogne), est un homme politique français.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Peytavie</t>
+          <t>Sébastien_Peytavie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,23 +528,98 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Sébastien Peytavie grandit à Borrèze (Dordogne). Son père, après une formation de menuiserie, devient aide agricole. Sa mère travaille dans une garderie. Ils deviennent famille d’accueil puis créent un lieu de vie, « la Ribambelle », dans lequel le père de Sébastien est éducateur auprès de jeunes placés par l’aide sociale à l'enfance[1].
-En 1985, une intervention cardiaque rend Sébastien, alors âgé de trois ans, paraplégique. Il se déplace depuis en fauteuil roulant[2].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sébastien Peytavie grandit à Borrèze (Dordogne). Son père, après une formation de menuiserie, devient aide agricole. Sa mère travaille dans une garderie. Ils deviennent famille d’accueil puis créent un lieu de vie, « la Ribambelle », dans lequel le père de Sébastien est éducateur auprès de jeunes placés par l’aide sociale à l'enfance.
+En 1985, une intervention cardiaque rend Sébastien, alors âgé de trois ans, paraplégique. Il se déplace depuis en fauteuil roulant.
 Il fait sa scolarité à l’école primaire de Borrèze, puis au collège de Martel (Lot), enfin au lycée de Terrasson (Dordogne).
 Il part ensuite faire ses études à Toulouse à l’université du Mirail, où il obtient un Master en psychopathologie clinique en 2006. Durant son cursus, il est élu représentant étudiant au sein du conseil d'administration de l’université (2003-2006).
-Carrière
-Après une année sabbatique à parcourir une partie de la côte Est des États-Unis et de l’Europe de l’Est, il travaille deux ans comme éducateur au sein d’un lieu de vie[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sébastien_Peytavie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9bastien_Peytavie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une année sabbatique à parcourir une partie de la côte Est des États-Unis et de l’Europe de l’Est, il travaille deux ans comme éducateur au sein d’un lieu de vie.
 Il s’installe ensuite comme psychologue en libéral. Parallèlement il est formateur pendant neuf ans dans une école préparatoire pour le concours infirmier, et psychologue à temps partiel au sein de l'Association des Paralysés de France (APF) et en Institut médicoéducatif (IME). Il travaille depuis 2019 à l’hôpital public de Sarlat pour un remplacement en service de psychiatrie. Il intègre aussi l’équipe mobile Programme d’accès et suivi aux soins (EMPASS) afin d’accompagner les personnes en situation de précarité (jeunes de la mission locale, femmes victimes de violences, migrants, etc.)
-Passionné de rugby à XIII, il a été ailier pendant six ans dans l’équipe de Cahors, « les Diables Cadurciens », et gagne la Coupe de France en fauteuil en 2016 à Saint-Jory, et le Championnat de France D2 en 2018[4].
-Parcours politique
-De 2008 à 2014, il est conseiller municipal (sans étiquette) à Borrèze chargé de la Culture, de la Vie associative et de l’École.
-Lors de la présidentielle de 2012, il vote pour le candidat socialiste, François Hollande[5]. 
-En 2017, il co-crée et anime en Sarladais le comité du Mouvement M1717 fondé par Benoît Hamon au lendemain de la présidentielle, qui devient ensuite Génération.s[2].
-En 2019, il est candidat aux élections européennes sur la liste de Génération.s[6],[7], en onzième position.
+Passionné de rugby à XIII, il a été ailier pendant six ans dans l’équipe de Cahors, « les Diables Cadurciens », et gagne la Coupe de France en fauteuil en 2016 à Saint-Jory, et le Championnat de France D2 en 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sébastien_Peytavie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9bastien_Peytavie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcours politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2008 à 2014, il est conseiller municipal (sans étiquette) à Borrèze chargé de la Culture, de la Vie associative et de l’École.
+Lors de la présidentielle de 2012, il vote pour le candidat socialiste, François Hollande. 
+En 2017, il co-crée et anime en Sarladais le comité du Mouvement M1717 fondé par Benoît Hamon au lendemain de la présidentielle, qui devient ensuite Génération.s.
+En 2019, il est candidat aux élections européennes sur la liste de Génération.s en onzième position.
 Aux élections municipales de 2020, il participe activement à la construction d’une liste d'union de la gauche et des écologistes (« Ma commune, ma planète ») à Sarlat-la-Canéda et se présente à la 5e place. La liste recueille 25,79 % des suffrages à l’issue d’une triangulaire et obtient trois sièges.
 En 2021, il se présente aux élections départementales comme suppléant sur la liste de rassemblement des gauches.
-Fin mars 2022, il annonce sa candidature aux élections législatives de 2022 sous l'étiquette Pôle écologiste (EÉLV, G.s)[8]. Représentant la coalition NUPES, il est élu député le 19 juin 2022 avec 55,5 % des suffrages au second tour, face à Jacqueline Dubois, députée sortante, anciennement issue de La République en marche[9]. Il devient alors le premier député en fauteuil roulant de la Ve République[10]. L'hémicycle n'étant pas adapté à la circulation des fauteuils roulants, Sébastien Peytavie doit siéger à côté des ministres, au premier rang[11]. Sensible à la problématique du handicap, il souhaite cependant avant tout concentrer ses efforts sur la défense des services publics et la lutte contre le réchauffement climatique[12]. Après plusieurs mois d'hospitalisation en raison des conséquences d'une chute, et à la suite de travaux d'adaptation dans l'hémicycle, il effectue sa rentrée au palais Bourbon en janvier 2023[13].
+Fin mars 2022, il annonce sa candidature aux élections législatives de 2022 sous l'étiquette Pôle écologiste (EÉLV, G.s). Représentant la coalition NUPES, il est élu député le 19 juin 2022 avec 55,5 % des suffrages au second tour, face à Jacqueline Dubois, députée sortante, anciennement issue de La République en marche. Il devient alors le premier député en fauteuil roulant de la Ve République. L'hémicycle n'étant pas adapté à la circulation des fauteuils roulants, Sébastien Peytavie doit siéger à côté des ministres, au premier rang. Sensible à la problématique du handicap, il souhaite cependant avant tout concentrer ses efforts sur la défense des services publics et la lutte contre le réchauffement climatique. Après plusieurs mois d'hospitalisation en raison des conséquences d'une chute, et à la suite de travaux d'adaptation dans l'hémicycle, il effectue sa rentrée au palais Bourbon en janvier 2023.
 </t>
         </is>
       </c>
